--- a/inputs/germline_snv_VaraintBasedArray.xlsx
+++ b/inputs/germline_snv_VaraintBasedArray.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M244"/>
+  <dimension ref="A1:N244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,20 +482,25 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>AF_popmax.1</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>avsnp150</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>germline_test01</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>germline_test02</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Counts</t>
         </is>
@@ -545,20 +550,25 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>0.7654</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>rs3813194</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -606,20 +616,25 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>0.7623</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>rs4333796</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -667,20 +682,25 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>0.1739</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>rs12022640</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L4" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -728,20 +748,25 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>rs77481853</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L5" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -789,20 +814,25 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>0.151</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
           <t>rs6668667</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -850,20 +880,25 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>0.3286</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>rs1320571</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -911,20 +946,25 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>0.5839</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>rs2274791</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -972,20 +1012,25 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>0.3081</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>rs78555129</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L9" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1033,20 +1078,25 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>0.1896</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
           <t>rs12093154</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L10" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1094,20 +1144,25 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>0.5580</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
           <t>rs11260579</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L11" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1155,20 +1210,25 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>0.5506</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
           <t>rs2228579</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L12" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1216,20 +1276,25 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>0.9881</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
           <t>rs307377</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1277,20 +1342,25 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
           <t>rs745907818</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L14" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1338,20 +1408,25 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>0.4903</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
           <t>rs375289924</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L15" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1399,20 +1474,25 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
           <t>rs2461551</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1460,20 +1540,25 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
           <t>rs372857539</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1521,20 +1606,25 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
           <t>rs371784856</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1582,20 +1672,25 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
           <t>rs375154304</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1643,20 +1738,25 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
+          <t>0.4453</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
           <t>rs866348371</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L20" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1704,20 +1804,25 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
+          <t>0.4274</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
           <t>rs370365546</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L21" t="inlineStr">
         <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
           <t>0|1</t>
         </is>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1765,20 +1870,25 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
+          <t>0.4180</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
           <t>rs866792932</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L22" t="inlineStr">
         <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
           <t>0|1</t>
         </is>
       </c>
-      <c r="M22" t="n">
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1826,20 +1936,25 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
           <t>rs373582709</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L23" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1887,20 +2002,25 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
+          <t>0.5698</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
           <t>rs370691115</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1948,20 +2068,25 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
+          <t>0.4593</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
           <t>rs796086906</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2009,20 +2134,25 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
+          <t>0.3690</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
           <t>rs370723703</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L26" t="inlineStr">
         <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
           <t>0|1</t>
         </is>
       </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2070,20 +2200,25 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
+          <t>0.3628</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
           <t>rs373847457</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L27" t="inlineStr">
         <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
           <t>0|1</t>
         </is>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,20 +2266,25 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
+          <t>0.8853</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
           <t>rs34091023</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2192,20 +2332,25 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
+          <t>0.1698</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
           <t>rs17139966</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L29" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2253,20 +2398,25 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
           <t>rs3871811</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2314,20 +2464,25 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
+          <t>0.8874</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
           <t>rs1171</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M31" t="n">
+      <c r="N31" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2375,20 +2530,25 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
+          <t>0.9948</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
           <t>rs12030806</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>1|1</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>1|1</t>
         </is>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2436,20 +2596,25 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
+          <t>0.9968</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
           <t>rs1695824</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M33" t="n">
+      <c r="N33" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2497,20 +2662,25 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
+          <t>0.9962</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
           <t>rs1695823</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M34" t="n">
+      <c r="N34" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2558,20 +2728,25 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
+          <t>0.3866</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
           <t>rs9793256</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L35" t="inlineStr">
         <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M35" t="n">
+      <c r="N35" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2619,20 +2794,25 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
+          <t>0.2458</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
           <t>rs878986575</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,20 +2860,25 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
+          <t>0.5762</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
           <t>rs860213</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2741,20 +2926,25 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
           <t>rs140441570</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2802,20 +2992,25 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
+          <t>0.3445</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
           <t>rs2274435</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,20 +3058,25 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
+          <t>0.3013</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
           <t>rs1619925</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>0|1</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2924,20 +3124,25 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
+          <t>0.2645</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
           <t>rs1619896</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="L41" t="inlineStr">
         <is>
           <t>0|1</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2985,20 +3190,25 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
+          <t>0.1944</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
           <t>rs1619815</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="L42" t="inlineStr">
         <is>
           <t>0|1</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3046,20 +3256,25 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
+          <t>0.4307</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
           <t>rs2691315</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="L43" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="M43" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M43" t="n">
+      <c r="N43" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3107,20 +3322,25 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
+          <t>0.9782</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
           <t>rs557514207</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="L44" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="M44" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M44" t="n">
+      <c r="N44" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3168,20 +3388,25 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
+          <t>0.9365</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
           <t>rs12755088</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3229,20 +3454,25 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
+          <t>0.6145</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
           <t>rs12729295</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L46" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3290,20 +3520,25 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
           <t>rs199942750</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3351,20 +3586,25 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
+          <t>0.6301</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
           <t>rs1059831</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="L48" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="M48" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M48" t="n">
+      <c r="N48" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3412,20 +3652,25 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
+          <t>0.7103</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
           <t>rs77655487</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L49" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3473,20 +3718,25 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
+          <t>0.5578</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
           <t>rs150880809</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L50" t="inlineStr">
         <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M50" t="n">
+      <c r="N50" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3534,20 +3784,25 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
+          <t>0.4042</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
           <t>rs4751</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3600,15 +3855,20 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="M52" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M52" t="n">
+      <c r="N52" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3661,15 +3921,20 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>0/1</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3717,20 +3982,25 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
+          <t>0.5684</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
           <t>rs28640257</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L54" t="inlineStr">
         <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M54" t="n">
+      <c r="N54" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3778,20 +4048,25 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
+          <t>0.5631</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
           <t>rs575852588</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L55" t="inlineStr">
         <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M55" t="n">
+      <c r="N55" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3839,20 +4114,25 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
+          <t>0.5649</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
           <t>rs2803295</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L56" t="inlineStr">
         <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M56" t="n">
+      <c r="N56" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3900,20 +4180,25 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
+          <t>0.6703</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
           <t>rs2803327</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L57" t="inlineStr">
         <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M57" t="n">
+      <c r="N57" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3961,20 +4246,25 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
+          <t>0.5768</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
           <t>rs2803336</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr">
+      <c r="L58" t="inlineStr">
         <is>
           <t>0|1</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="M58" t="inlineStr">
         <is>
           <t>1|1</t>
         </is>
       </c>
-      <c r="M58" t="n">
+      <c r="N58" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4022,20 +4312,25 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
+          <t>0.025</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
           <t>rs181015303</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4083,20 +4378,25 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
+          <t>0.2204</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
           <t>rs35269416</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4144,20 +4444,25 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
+          <t>0.4397</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
           <t>rs16824588</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4205,20 +4510,25 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
           <t>rs78101035</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4266,20 +4576,25 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
+          <t>0.3679</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
           <t>rs262688</t>
         </is>
       </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4327,20 +4642,25 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
           <t>rs6662296</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr">
+      <c r="L64" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="M64" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M64" t="n">
+      <c r="N64" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4388,20 +4708,25 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
+          <t>0.4598</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
           <t>rs10910053</t>
         </is>
       </c>
-      <c r="K65" t="inlineStr">
+      <c r="L65" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="M65" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M65" t="n">
+      <c r="N65" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4449,20 +4774,25 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
+          <t>0.2271</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
           <t>rs72642166</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4510,20 +4840,25 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
+          <t>0.9248</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
           <t>rs2254874</t>
         </is>
       </c>
-      <c r="K67" t="inlineStr">
+      <c r="L67" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="M67" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M67" t="n">
+      <c r="N67" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4571,20 +4906,25 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
+          <t>0.2257</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
           <t>rs2036082</t>
         </is>
       </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L68" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4632,20 +4972,25 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
+          <t>0.6186</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
           <t>rs2840525</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L69" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4693,20 +5038,25 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
+          <t>0.5160</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
           <t>rs2840526</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L70" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4754,20 +5104,25 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
+          <t>0.7242</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
           <t>rs2643912</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L71" t="inlineStr">
         <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M71" t="n">
+      <c r="N71" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4815,20 +5170,25 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
+          <t>0.1616</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
           <t>rs74047119</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L72" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4876,20 +5236,25 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
+          <t>0.7382</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
           <t>rs2840528</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr">
+      <c r="L73" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L73" t="inlineStr">
+      <c r="M73" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M73" t="n">
+      <c r="N73" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4937,20 +5302,25 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
+          <t>0.9237</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
           <t>rs2645082</t>
         </is>
       </c>
-      <c r="K74" t="inlineStr">
+      <c r="L74" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L74" t="inlineStr">
+      <c r="M74" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M74" t="n">
+      <c r="N74" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4998,20 +5368,25 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
           <t>rs369208976</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5059,20 +5434,25 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
           <t>rs142848828</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L76" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5120,20 +5500,25 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
+          <t>0.5168</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
           <t>rs12736998</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr">
+      <c r="L77" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5181,20 +5566,25 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
+          <t>0.6580</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
           <t>rs2494620</t>
         </is>
       </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,20 +5632,25 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
+          <t>0.8153</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
           <t>rs2147905</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L79" t="inlineStr">
         <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M79" t="n">
+      <c r="N79" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5303,20 +5698,25 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
+          <t>0.6875</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
           <t>rs3748825</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L80" t="inlineStr">
         <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M80" t="n">
+      <c r="N80" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5364,20 +5764,25 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
+          <t>0.7084</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
           <t>rs2985858</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L81" t="inlineStr">
         <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M81" t="n">
+      <c r="N81" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5425,20 +5830,25 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
+          <t>0.5448</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
           <t>rs2258734</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L82" t="inlineStr">
         <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M82" t="n">
+      <c r="N82" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5486,20 +5896,25 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
+          <t>0.4097</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
           <t>rs3762438</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L83" t="inlineStr">
         <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M83" t="n">
+      <c r="N83" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5547,20 +5962,25 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
+          <t>0.6745</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
           <t>rs2227312</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L84" t="inlineStr">
         <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M84" t="n">
+      <c r="N84" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5608,20 +6028,25 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
+          <t>0.6971</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
           <t>rs2227313</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L85" t="inlineStr">
         <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M85" t="n">
+      <c r="N85" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5669,20 +6094,25 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
+          <t>0.7178</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
           <t>rs4870</t>
         </is>
       </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L86" t="inlineStr">
         <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M86" t="n">
+      <c r="N86" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5730,20 +6160,25 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
+          <t>0.8430</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
           <t>rs2495365</t>
         </is>
       </c>
-      <c r="K87" t="inlineStr">
+      <c r="L87" t="inlineStr">
         <is>
           <t>0|1</t>
         </is>
       </c>
-      <c r="L87" t="inlineStr">
+      <c r="M87" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M87" t="n">
+      <c r="N87" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5791,20 +6226,25 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
+          <t>0.8001</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
           <t>rs4486391</t>
         </is>
       </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L88" t="inlineStr">
         <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M88" t="n">
+      <c r="N88" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5852,20 +6292,25 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
+          <t>0.6805</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
           <t>rs3748816</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr">
+      <c r="L89" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L89" t="inlineStr">
+      <c r="M89" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M89" t="n">
+      <c r="N89" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5913,20 +6358,25 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
+          <t>0.5419</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
           <t>rs897628</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr">
+      <c r="L90" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L90" t="inlineStr">
+      <c r="M90" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M90" t="n">
+      <c r="N90" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5974,20 +6424,25 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
+          <t>0.4502</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
           <t>rs1138513</t>
         </is>
       </c>
-      <c r="K91" t="inlineStr">
+      <c r="L91" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6035,20 +6490,25 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
+          <t>0.4870</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
           <t>rs2075969</t>
         </is>
       </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6096,20 +6556,25 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
+          <t>0.4742</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
           <t>rs113565775</t>
         </is>
       </c>
-      <c r="K93" t="inlineStr">
+      <c r="L93" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6157,20 +6622,25 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
+          <t>0.2019</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
           <t>rs59243365</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr">
+      <c r="L94" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6218,20 +6688,25 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
+          <t>0.1933</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
           <t>rs117423646</t>
         </is>
       </c>
-      <c r="K95" t="inlineStr">
+      <c r="L95" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6279,20 +6754,25 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
+          <t>0.4689</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
           <t>rs2072732</t>
         </is>
       </c>
-      <c r="K96" t="inlineStr">
+      <c r="L96" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6340,20 +6820,25 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
+          <t>0.2436</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
           <t>rs12563622</t>
         </is>
       </c>
-      <c r="K97" t="inlineStr">
+      <c r="L97" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6401,20 +6886,25 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
+          <t>0.2015</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
           <t>rs12562250</t>
         </is>
       </c>
-      <c r="K98" t="inlineStr">
+      <c r="L98" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6462,20 +6952,25 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
+          <t>0.4009</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
           <t>rs2297829</t>
         </is>
       </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L99" t="inlineStr">
         <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M99" t="n">
+      <c r="N99" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6523,20 +7018,25 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
+          <t>0.9994</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
           <t>rs870124</t>
         </is>
       </c>
-      <c r="K100" t="inlineStr">
+      <c r="L100" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L100" t="inlineStr">
+      <c r="M100" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M100" t="n">
+      <c r="N100" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6584,20 +7084,25 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
+          <t>0.1528</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
           <t>rs3806164</t>
         </is>
       </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6645,20 +7150,25 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
+          <t>0.8643</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
           <t>rs2185639</t>
         </is>
       </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6706,20 +7216,25 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
           <t>rs61910697</t>
         </is>
       </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6767,20 +7282,25 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
+          <t>0.2955</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
           <t>rs61746168</t>
         </is>
       </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6828,20 +7348,25 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
+          <t>0.1426</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
           <t>rs12075570</t>
         </is>
       </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6889,20 +7414,25 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
+          <t>0.3172</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
           <t>rs4648506</t>
         </is>
       </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L106" t="inlineStr">
         <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M106" t="n">
+      <c r="N106" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6950,20 +7480,25 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
+          <t>0.7504</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
           <t>rs7553399</t>
         </is>
       </c>
-      <c r="K107" t="inlineStr">
+      <c r="L107" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L107" t="inlineStr">
+      <c r="M107" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M107" t="n">
+      <c r="N107" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7011,20 +7546,25 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
+          <t>0.9160</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
           <t>rs2794340</t>
         </is>
       </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L108" t="inlineStr">
         <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M108" t="n">
+      <c r="N108" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7072,20 +7612,25 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
+          <t>0.3847</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
           <t>rs7513275</t>
         </is>
       </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7133,20 +7678,25 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
+          <t>0.7442</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
           <t>rs9800</t>
         </is>
       </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7194,20 +7744,25 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
+          <t>0.8462</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
           <t>rs1181866</t>
         </is>
       </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7255,20 +7810,25 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
+          <t>0.9199</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
           <t>rs1181865</t>
         </is>
       </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7316,20 +7876,25 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
+          <t>0.7446</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
           <t>rs1181864</t>
         </is>
       </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7377,20 +7942,25 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
+          <t>0.2503</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
           <t>rs3838970</t>
         </is>
       </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7438,20 +8008,25 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
+          <t>0.2574</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
           <t>rs3903158</t>
         </is>
       </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7499,20 +8074,25 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
+          <t>0.2522</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
           <t>rs4098708</t>
         </is>
       </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7560,20 +8140,25 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
+          <t>0.9980</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
           <t>rs1181863</t>
         </is>
       </c>
-      <c r="K117" t="inlineStr">
+      <c r="L117" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L117" t="inlineStr">
+      <c r="M117" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M117" t="n">
+      <c r="N117" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7621,20 +8206,25 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
+          <t>0.3550</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
           <t>rs2298222</t>
         </is>
       </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7682,20 +8272,25 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
+          <t>0.2529</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
           <t>rs2298223</t>
         </is>
       </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7743,20 +8338,25 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
+          <t>0.4031</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
           <t>rs3737589</t>
         </is>
       </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7804,20 +8404,25 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
+          <t>0.3546</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
           <t>rs3737590</t>
         </is>
       </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7865,20 +8470,25 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
+          <t>0.3522</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
           <t>rs75438821</t>
         </is>
       </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7926,20 +8536,25 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
+          <t>0.3983</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
           <t>rs10910021</t>
         </is>
       </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L123" t="inlineStr">
         <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
           <t>0|1</t>
         </is>
       </c>
-      <c r="M123" t="n">
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7987,20 +8602,25 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
+          <t>0.6360</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
           <t>rs1181883</t>
         </is>
       </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8048,20 +8668,25 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
+          <t>0.1393</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
           <t>rs75853003</t>
         </is>
       </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8109,20 +8734,25 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
+          <t>0.5263</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
           <t>rs2275831</t>
         </is>
       </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8170,20 +8800,25 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
+          <t>0.4339</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
           <t>rs2275824</t>
         </is>
       </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8231,20 +8866,25 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
+          <t>0.2361</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
           <t>rs12738235</t>
         </is>
       </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8292,20 +8932,25 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
+          <t>0.1548</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
           <t>rs12036962</t>
         </is>
       </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8353,20 +8998,25 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
+          <t>0.1548</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
           <t>rs10909820</t>
         </is>
       </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8414,20 +9064,25 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
           <t>rs4274008</t>
         </is>
       </c>
-      <c r="K131" t="inlineStr">
+      <c r="L131" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L131" t="inlineStr">
+      <c r="M131" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M131" t="n">
+      <c r="N131" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8475,20 +9130,25 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
           <t>rs139505893</t>
         </is>
       </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8536,20 +9196,25 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
+          <t>0.3856</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
           <t>rs35355307</t>
         </is>
       </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8597,20 +9262,25 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
+          <t>0.9430</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
           <t>rs35241263</t>
         </is>
       </c>
-      <c r="K134" t="inlineStr">
+      <c r="L134" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8658,20 +9328,25 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
+          <t>0.1563</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
           <t>rs75380240</t>
         </is>
       </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8719,20 +9394,25 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
+          <t>0.7674</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
           <t>rs10799162</t>
         </is>
       </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L136" t="inlineStr">
         <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M136" t="n">
+      <c r="N136" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8780,20 +9460,25 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
+          <t>0.6084</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
           <t>rs10799163</t>
         </is>
       </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8841,20 +9526,25 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
+          <t>0.7593</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
           <t>rs10915345</t>
         </is>
       </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L138" t="inlineStr">
         <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M138" t="n">
+      <c r="N138" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8902,20 +9592,25 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
           <t>rs187020354</t>
         </is>
       </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8963,20 +9658,25 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
           <t>rs12058774</t>
         </is>
       </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9024,20 +9724,25 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
+          <t>0.2852</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
           <t>rs11590912</t>
         </is>
       </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9085,20 +9790,25 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
+          <t>0.1497</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
           <t>rs2926478</t>
         </is>
       </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9146,20 +9856,25 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
+          <t>0.7678</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
           <t>rs34773421</t>
         </is>
       </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9207,20 +9922,25 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
+          <t>0.1449</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
           <t>rs2926479</t>
         </is>
       </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9268,20 +9988,25 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
+          <t>0.5476</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
           <t>rs4654533</t>
         </is>
       </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9329,20 +10054,25 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
+          <t>0.4575</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
           <t>rs7522080</t>
         </is>
       </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9390,20 +10120,25 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
+          <t>0.4578</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
           <t>rs4654534</t>
         </is>
       </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9451,20 +10186,25 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
+          <t>0.4100</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
           <t>rs376744526</t>
         </is>
       </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9512,20 +10252,25 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
+          <t>0.6896</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
           <t>rs980092</t>
         </is>
       </c>
-      <c r="K149" t="inlineStr">
+      <c r="L149" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L149" t="inlineStr">
+      <c r="M149" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M149" t="n">
+      <c r="N149" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9573,20 +10318,25 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
+          <t>0.9417</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
           <t>rs184781</t>
         </is>
       </c>
-      <c r="K150" t="inlineStr">
+      <c r="L150" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L150" t="inlineStr">
+      <c r="M150" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M150" t="n">
+      <c r="N150" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9634,20 +10384,25 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
+          <t>0.9416</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
           <t>rs515279</t>
         </is>
       </c>
-      <c r="K151" t="inlineStr">
+      <c r="L151" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L151" t="inlineStr">
+      <c r="M151" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M151" t="n">
+      <c r="N151" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9695,20 +10450,25 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
+          <t>0.6539</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
           <t>rs242056</t>
         </is>
       </c>
-      <c r="K152" t="inlineStr">
+      <c r="L152" t="inlineStr">
         <is>
           <t>1|0</t>
         </is>
       </c>
-      <c r="L152" t="inlineStr">
+      <c r="M152" t="inlineStr">
         <is>
           <t>1|0</t>
         </is>
       </c>
-      <c r="M152" t="n">
+      <c r="N152" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9756,20 +10516,25 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
+          <t>0.9981</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
           <t>rs2843493</t>
         </is>
       </c>
-      <c r="K153" t="inlineStr">
+      <c r="L153" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L153" t="inlineStr">
+      <c r="M153" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M153" t="n">
+      <c r="N153" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9817,20 +10582,25 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
           <t>rs117780546</t>
         </is>
       </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L154" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9878,20 +10648,25 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
+          <t>0.4156</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
           <t>rs2272988</t>
         </is>
       </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9939,12 +10714,12 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>0.0006</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>0/1</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
@@ -9952,7 +10727,12 @@
           <t>0/1</t>
         </is>
       </c>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>2</v>
       </c>
     </row>
@@ -10000,20 +10780,25 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
+          <t>0.2198</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
           <t>rs78132938</t>
         </is>
       </c>
-      <c r="K157" t="inlineStr">
+      <c r="L157" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L157" t="inlineStr">
+      <c r="M157" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M157" t="n">
+      <c r="N157" t="n">
         <v>2</v>
       </c>
     </row>
@@ -10061,20 +10846,25 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
           <t>rs78231499</t>
         </is>
       </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L158" t="inlineStr">
         <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M158" t="n">
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10122,20 +10912,25 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
+          <t>0.5402</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
           <t>rs75490131</t>
         </is>
       </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L159" t="inlineStr">
         <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M159" t="n">
+      <c r="N159" t="n">
         <v>2</v>
       </c>
     </row>
@@ -10183,20 +10978,25 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
+          <t>0.9964</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
           <t>rs6693391</t>
         </is>
       </c>
-      <c r="K160" t="inlineStr">
+      <c r="L160" t="inlineStr">
         <is>
           <t>1|1</t>
         </is>
       </c>
-      <c r="L160" t="inlineStr">
+      <c r="M160" t="inlineStr">
         <is>
           <t>1|1</t>
         </is>
       </c>
-      <c r="M160" t="n">
+      <c r="N160" t="n">
         <v>2</v>
       </c>
     </row>
@@ -10244,20 +11044,25 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
           <t>rs6693400</t>
         </is>
       </c>
-      <c r="K161" t="inlineStr">
+      <c r="L161" t="inlineStr">
         <is>
           <t>1|1</t>
         </is>
       </c>
-      <c r="L161" t="inlineStr">
+      <c r="M161" t="inlineStr">
         <is>
           <t>1|1</t>
         </is>
       </c>
-      <c r="M161" t="n">
+      <c r="N161" t="n">
         <v>2</v>
       </c>
     </row>
@@ -10305,20 +11110,25 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
+          <t>0.8866</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
           <t>rs4908923</t>
         </is>
       </c>
-      <c r="K162" t="inlineStr">
+      <c r="L162" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L162" t="inlineStr">
+      <c r="M162" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M162" t="n">
+      <c r="N162" t="n">
         <v>2</v>
       </c>
     </row>
@@ -10366,20 +11176,25 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
           <t>rs10864628</t>
         </is>
       </c>
-      <c r="K163" t="inlineStr">
+      <c r="L163" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10427,20 +11242,25 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
+          <t>0.4169</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
           <t>rs3174820</t>
         </is>
       </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10488,20 +11308,25 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
           <t>rs2691305</t>
         </is>
       </c>
-      <c r="K165" t="inlineStr">
+      <c r="L165" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L165" t="inlineStr">
+      <c r="M165" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M165" t="n">
+      <c r="N165" t="n">
         <v>2</v>
       </c>
     </row>
@@ -10549,20 +11374,25 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
+          <t>0.8683</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
           <t>rs200946230</t>
         </is>
       </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L166" t="inlineStr">
         <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M166" t="n">
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10610,20 +11440,25 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
+          <t>0.8638</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
           <t>rs202070913</t>
         </is>
       </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L167" t="inlineStr">
         <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M167" t="n">
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10671,20 +11506,25 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
+          <t>0.3020</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
           <t>rs371628865</t>
         </is>
       </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10732,20 +11572,25 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
+          <t>0.2482</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
           <t>rs61769339</t>
         </is>
       </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10793,20 +11638,25 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
+          <t>0.8336</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
           <t>rs377354243</t>
         </is>
       </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L170" t="inlineStr">
         <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M170" t="n">
+      <c r="N170" t="n">
         <v>2</v>
       </c>
     </row>
@@ -10854,20 +11704,25 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
+          <t>0.8566</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
           <t>rs61769340</t>
         </is>
       </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L171" t="inlineStr">
         <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M171" t="n">
+      <c r="N171" t="n">
         <v>2</v>
       </c>
     </row>
@@ -10915,20 +11770,25 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
+          <t>0.2874</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
           <t>rs77832891</t>
         </is>
       </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10976,20 +11836,25 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
+          <t>0.9018</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
           <t>rs3131971</t>
         </is>
       </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L173" t="inlineStr">
         <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M173" t="n">
+      <c r="N173" t="n">
         <v>2</v>
       </c>
     </row>
@@ -11037,20 +11902,25 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
           <t>rs3115861</t>
         </is>
       </c>
-      <c r="K174" t="inlineStr">
+      <c r="L174" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L174" t="inlineStr">
+      <c r="M174" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M174" t="n">
+      <c r="N174" t="n">
         <v>2</v>
       </c>
     </row>
@@ -11098,20 +11968,25 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
+          <t>0.9015</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
           <t>rs3115860</t>
         </is>
       </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L175" t="inlineStr">
         <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M175" t="n">
+      <c r="N175" t="n">
         <v>2</v>
       </c>
     </row>
@@ -11159,20 +12034,25 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
+          <t>0.9028</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
           <t>rs3131970</t>
         </is>
       </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L176" t="inlineStr">
         <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M176" t="n">
+      <c r="N176" t="n">
         <v>2</v>
       </c>
     </row>
@@ -11220,20 +12100,25 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
+          <t>0.8118</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
           <t>rs2073814</t>
         </is>
       </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L177" t="inlineStr">
         <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M177" t="n">
+      <c r="N177" t="n">
         <v>2</v>
       </c>
     </row>
@@ -11281,20 +12166,25 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
+          <t>0.5371</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
           <t>rs2073813</t>
         </is>
       </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11342,20 +12232,25 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
+          <t>0.8498</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
           <t>rs3131969</t>
         </is>
       </c>
-      <c r="K179" t="inlineStr">
+      <c r="L179" t="inlineStr">
         <is>
           <t>0|1</t>
         </is>
       </c>
-      <c r="L179" t="inlineStr">
+      <c r="M179" t="inlineStr">
         <is>
           <t>1|1</t>
         </is>
       </c>
-      <c r="M179" t="n">
+      <c r="N179" t="n">
         <v>2</v>
       </c>
     </row>
@@ -11403,20 +12298,25 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
+          <t>0.8499</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
           <t>rs3131968</t>
         </is>
       </c>
-      <c r="K180" t="inlineStr">
+      <c r="L180" t="inlineStr">
         <is>
           <t>0|1</t>
         </is>
       </c>
-      <c r="L180" t="inlineStr">
+      <c r="M180" t="inlineStr">
         <is>
           <t>1|1</t>
         </is>
       </c>
-      <c r="M180" t="n">
+      <c r="N180" t="n">
         <v>2</v>
       </c>
     </row>
@@ -11464,20 +12364,25 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
+          <t>0.8511</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
           <t>rs3131967</t>
         </is>
       </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L181" t="inlineStr">
         <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M181" t="n">
+      <c r="N181" t="n">
         <v>2</v>
       </c>
     </row>
@@ -11525,20 +12430,25 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
+          <t>0.8138</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
           <t>rs3115859</t>
         </is>
       </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L182" t="inlineStr">
         <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M182" t="n">
+      <c r="N182" t="n">
         <v>2</v>
       </c>
     </row>
@@ -11586,20 +12496,25 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
+          <t>0.8136</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
           <t>rs3131966</t>
         </is>
       </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L183" t="inlineStr">
         <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M183" t="n">
+      <c r="N183" t="n">
         <v>2</v>
       </c>
     </row>
@@ -11647,20 +12562,25 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
+          <t>0.8381</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
           <t>rs2286139</t>
         </is>
       </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L184" t="inlineStr">
         <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M184" t="n">
+      <c r="N184" t="n">
         <v>2</v>
       </c>
     </row>
@@ -11708,20 +12628,25 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
+          <t>0.8908</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
           <t>rs1057213</t>
         </is>
       </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L185" t="inlineStr">
         <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M185" t="n">
+      <c r="N185" t="n">
         <v>2</v>
       </c>
     </row>
@@ -11769,20 +12694,25 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
+          <t>0.8404</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
           <t>rs1064272</t>
         </is>
       </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L186" t="inlineStr">
         <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M186" t="n">
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11830,20 +12760,25 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
+          <t>0.8463</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
           <t>rs1057212</t>
         </is>
       </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L187" t="inlineStr">
         <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M187" t="n">
+      <c r="N187" t="n">
         <v>2</v>
       </c>
     </row>
@@ -11891,20 +12826,25 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
+          <t>0.8943</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
           <t>rs59038458</t>
         </is>
       </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L188" t="inlineStr">
         <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M188" t="n">
+      <c r="N188" t="n">
         <v>2</v>
       </c>
     </row>
@@ -11952,20 +12892,25 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
+          <t>0.9026</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
           <t>rs3115849</t>
         </is>
       </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L189" t="inlineStr">
         <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M189" t="n">
+      <c r="N189" t="n">
         <v>2</v>
       </c>
     </row>
@@ -12013,20 +12958,25 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
+          <t>0.3640</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
           <t>rs12095200</t>
         </is>
       </c>
-      <c r="K190" t="inlineStr">
+      <c r="L190" t="inlineStr">
         <is>
           <t>0|1</t>
         </is>
       </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12074,20 +13024,25 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
+          <t>0.8982</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
           <t>rs3115848</t>
         </is>
       </c>
-      <c r="K191" t="inlineStr">
+      <c r="L191" t="inlineStr">
         <is>
           <t>0|1</t>
         </is>
       </c>
-      <c r="L191" t="inlineStr">
+      <c r="M191" t="inlineStr">
         <is>
           <t>1|1</t>
         </is>
       </c>
-      <c r="M191" t="n">
+      <c r="N191" t="n">
         <v>2</v>
       </c>
     </row>
@@ -12135,20 +13090,25 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
+          <t>0.8983</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
           <t>rs3131950</t>
         </is>
       </c>
-      <c r="K192" t="inlineStr">
+      <c r="L192" t="inlineStr">
         <is>
           <t>0|1</t>
         </is>
       </c>
-      <c r="L192" t="inlineStr">
+      <c r="M192" t="inlineStr">
         <is>
           <t>1|1</t>
         </is>
       </c>
-      <c r="M192" t="n">
+      <c r="N192" t="n">
         <v>2</v>
       </c>
     </row>
@@ -12196,20 +13156,25 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
+          <t>0.9017</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
           <t>rs3131949</t>
         </is>
       </c>
-      <c r="K193" t="inlineStr">
+      <c r="L193" t="inlineStr">
         <is>
           <t>0|1</t>
         </is>
       </c>
-      <c r="L193" t="inlineStr">
+      <c r="M193" t="inlineStr">
         <is>
           <t>1|1</t>
         </is>
       </c>
-      <c r="M193" t="n">
+      <c r="N193" t="n">
         <v>2</v>
       </c>
     </row>
@@ -12257,20 +13222,25 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
+          <t>0.9032</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
           <t>rs3131948</t>
         </is>
       </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L194" t="inlineStr">
         <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M194" t="n">
+      <c r="N194" t="n">
         <v>2</v>
       </c>
     </row>
@@ -12318,20 +13288,25 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
+          <t>0.2444</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
           <t>rs150855628</t>
         </is>
       </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L195" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
         <v>2</v>
       </c>
     </row>
@@ -12379,20 +13354,25 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
+          <t>0.9027</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
           <t>rs2980319</t>
         </is>
       </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L196" t="inlineStr">
         <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M196" t="n">
+      <c r="N196" t="n">
         <v>2</v>
       </c>
     </row>
@@ -12440,20 +13420,25 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
+          <t>0.9994</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
           <t>rs112119688</t>
         </is>
       </c>
-      <c r="K197" t="inlineStr">
+      <c r="L197" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L197" t="inlineStr">
+      <c r="M197" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M197" t="n">
+      <c r="N197" t="n">
         <v>2</v>
       </c>
     </row>
@@ -12501,20 +13486,25 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
           <t>rs2977615</t>
         </is>
       </c>
-      <c r="K198" t="inlineStr">
+      <c r="L198" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L198" t="inlineStr">
+      <c r="M198" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M198" t="n">
+      <c r="N198" t="n">
         <v>2</v>
       </c>
     </row>
@@ -12562,20 +13552,25 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
+          <t>0.3919</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
           <t>rs1055606</t>
         </is>
       </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12623,20 +13618,25 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
+          <t>0.8460</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
           <t>rs2905055</t>
         </is>
       </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L200" t="inlineStr">
         <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M200" t="n">
+      <c r="N200" t="n">
         <v>2</v>
       </c>
     </row>
@@ -12684,20 +13684,25 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
+          <t>0.4989</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
           <t>rs10157303</t>
         </is>
       </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12745,20 +13750,25 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
+          <t>0.4988</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
           <t>rs10159337</t>
         </is>
       </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12806,20 +13816,25 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
+          <t>0.4097</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
           <t>rs10159341</t>
         </is>
       </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12867,20 +13882,25 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
+          <t>0.2921</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
           <t>rs10158924</t>
         </is>
       </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12928,20 +13948,25 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
+          <t>0.3417</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
           <t>rs10158925</t>
         </is>
       </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12989,20 +14014,25 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
+          <t>0.7687</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
           <t>rs76619733</t>
         </is>
       </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L206" t="inlineStr">
         <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
           <t>1|1</t>
         </is>
       </c>
-      <c r="M206" t="n">
+      <c r="N206" t="n">
         <v>2</v>
       </c>
     </row>
@@ -13050,20 +14080,25 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
+          <t>0.8022</t>
+        </is>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
           <t>rs55764050</t>
         </is>
       </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L207" t="inlineStr">
         <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
           <t>1|1</t>
         </is>
       </c>
-      <c r="M207" t="n">
+      <c r="N207" t="n">
         <v>2</v>
       </c>
     </row>
@@ -13111,20 +14146,25 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
           <t>rs375406639</t>
         </is>
       </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L208" t="inlineStr">
         <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M208" t="n">
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13172,20 +14212,25 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
           <t>rs373590535</t>
         </is>
       </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L209" t="inlineStr">
         <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M209" t="n">
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13233,20 +14278,25 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
+          <t>0.4844</t>
+        </is>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
           <t>rs10158938</t>
         </is>
       </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L210" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
         <v>2</v>
       </c>
     </row>
@@ -13294,20 +14344,25 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
+          <t>0.1655</t>
+        </is>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
           <t>rs111606675</t>
         </is>
       </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13355,20 +14410,25 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
+          <t>0.9746</t>
+        </is>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
           <t>rs3131939</t>
         </is>
       </c>
-      <c r="K212" t="inlineStr">
+      <c r="L212" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L212" t="inlineStr">
+      <c r="M212" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M212" t="n">
+      <c r="N212" t="n">
         <v>2</v>
       </c>
     </row>
@@ -13416,20 +14476,25 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
+          <t>0.4294</t>
+        </is>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
           <t>rs200509509</t>
         </is>
       </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13477,20 +14542,25 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
+          <t>0.2664</t>
+        </is>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
           <t>rs61768207</t>
         </is>
       </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13538,20 +14608,25 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
           <t>rs56224346</t>
         </is>
       </c>
-      <c r="K215" t="inlineStr">
+      <c r="L215" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L215" t="inlineStr">
+      <c r="M215" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M215" t="n">
+      <c r="N215" t="n">
         <v>2</v>
       </c>
     </row>
@@ -13599,20 +14674,25 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
+          <t>0.8474</t>
+        </is>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
           <t>rs3039191</t>
         </is>
       </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L216" t="inlineStr">
         <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M216" t="n">
+      <c r="N216" t="n">
         <v>2</v>
       </c>
     </row>
@@ -13660,20 +14740,25 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
+          <t>0.4328</t>
+        </is>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
           <t>rs111818025</t>
         </is>
       </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13721,20 +14806,25 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
+          <t>0.9747</t>
+        </is>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
           <t>rs1044922</t>
         </is>
       </c>
-      <c r="K218" t="inlineStr">
+      <c r="L218" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L218" t="inlineStr">
+      <c r="M218" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M218" t="n">
+      <c r="N218" t="n">
         <v>2</v>
       </c>
     </row>
@@ -13782,20 +14872,25 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
           <t>rs2905036</t>
         </is>
       </c>
-      <c r="K219" t="inlineStr">
+      <c r="L219" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L219" t="inlineStr">
+      <c r="M219" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M219" t="n">
+      <c r="N219" t="n">
         <v>2</v>
       </c>
     </row>
@@ -13843,20 +14938,25 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
+          <t>0.2631</t>
+        </is>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
           <t>rs2905030</t>
         </is>
       </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L220" t="inlineStr">
         <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M220" t="n">
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13904,20 +15004,25 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
+          <t>0.4533</t>
+        </is>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
           <t>rs200896772</t>
         </is>
       </c>
-      <c r="K221" t="inlineStr">
+      <c r="L221" t="inlineStr">
         <is>
           <t>0|1</t>
         </is>
       </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13965,20 +15070,25 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
+          <t>0.4920</t>
+        </is>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
           <t>rs2905029</t>
         </is>
       </c>
-      <c r="K222" t="inlineStr">
+      <c r="L222" t="inlineStr">
         <is>
           <t>0|1</t>
         </is>
       </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14026,20 +15136,25 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>0.1733</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
         <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
           <t>0|1</t>
         </is>
       </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14087,20 +15202,25 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>0.0318</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
         <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
           <t>0|1</t>
         </is>
       </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14148,20 +15268,25 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
+          <t>0.6298</t>
+        </is>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
           <t>rs2519067</t>
         </is>
       </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14209,20 +15334,25 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
+          <t>0.3025</t>
+        </is>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
           <t>rs2519031</t>
         </is>
       </c>
-      <c r="K226" t="inlineStr">
+      <c r="L226" t="inlineStr">
         <is>
           <t>0|1</t>
         </is>
       </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14270,20 +15400,25 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
+          <t>0.3007</t>
+        </is>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
           <t>rs28493038</t>
         </is>
       </c>
-      <c r="K227" t="inlineStr">
+      <c r="L227" t="inlineStr">
         <is>
           <t>0|1</t>
         </is>
       </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14331,20 +15466,25 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
+          <t>0.2224</t>
+        </is>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
           <t>rs117720955</t>
         </is>
       </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L228" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N228" t="n">
         <v>2</v>
       </c>
     </row>
@@ -14392,20 +15532,25 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
           <t>rs57181708</t>
         </is>
       </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L229" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N229" t="n">
         <v>2</v>
       </c>
     </row>
@@ -14453,20 +15598,25 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
+          <t>0.5047</t>
+        </is>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
           <t>rs28410559</t>
         </is>
       </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14514,20 +15664,25 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
+          <t>0.2808</t>
+        </is>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
           <t>rs2272758</t>
         </is>
       </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L231" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="N231" t="n">
         <v>2</v>
       </c>
     </row>
@@ -14575,20 +15730,25 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
+          <t>0.6560</t>
+        </is>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
           <t>rs13303369</t>
         </is>
       </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L232" t="inlineStr">
         <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M232" t="n">
+      <c r="N232" t="n">
         <v>2</v>
       </c>
     </row>
@@ -14636,20 +15796,25 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
+          <t>0.8391</t>
+        </is>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
           <t>rs4970461</t>
         </is>
       </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L233" t="inlineStr">
         <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M233" t="n">
+      <c r="N233" t="n">
         <v>2</v>
       </c>
     </row>
@@ -14697,20 +15862,25 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
+          <t>0.7716</t>
+        </is>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
           <t>rs13303019</t>
         </is>
       </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L234" t="inlineStr">
         <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M234" t="n">
+      <c r="N234" t="n">
         <v>2</v>
       </c>
     </row>
@@ -14758,20 +15928,25 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
+          <t>0.6548</t>
+        </is>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
           <t>rs13303057</t>
         </is>
       </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L235" t="inlineStr">
         <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M235" t="n">
+      <c r="N235" t="n">
         <v>2</v>
       </c>
     </row>
@@ -14819,20 +15994,25 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
           <t>rs6672356</t>
         </is>
       </c>
-      <c r="K236" t="inlineStr">
+      <c r="L236" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L236" t="inlineStr">
+      <c r="M236" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M236" t="n">
+      <c r="N236" t="n">
         <v>2</v>
       </c>
     </row>
@@ -14880,20 +16060,25 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
+          <t>0.9481</t>
+        </is>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
           <t>rs3748597</t>
         </is>
       </c>
-      <c r="K237" t="inlineStr">
+      <c r="L237" t="inlineStr">
         <is>
           <t>0|1</t>
         </is>
       </c>
-      <c r="L237" t="inlineStr">
+      <c r="M237" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M237" t="n">
+      <c r="N237" t="n">
         <v>2</v>
       </c>
     </row>
@@ -14941,20 +16126,25 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
           <t>rs3828049</t>
         </is>
       </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15002,20 +16192,25 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
+          <t>0.8646</t>
+        </is>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
           <t>rs3829740</t>
         </is>
       </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
       <c r="L239" t="inlineStr">
         <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M239" t="n">
+      <c r="N239" t="n">
         <v>2</v>
       </c>
     </row>
@@ -15063,20 +16258,25 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
+          <t>0.9532</t>
+        </is>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
           <t>rs7417106</t>
         </is>
       </c>
-      <c r="K240" t="inlineStr">
+      <c r="L240" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L240" t="inlineStr">
+      <c r="M240" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M240" t="n">
+      <c r="N240" t="n">
         <v>2</v>
       </c>
     </row>
@@ -15124,20 +16324,25 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
+          <t>0.8127</t>
+        </is>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
           <t>rs13302979</t>
         </is>
       </c>
-      <c r="K241" t="inlineStr">
+      <c r="L241" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L241" t="inlineStr">
+      <c r="M241" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M241" t="n">
+      <c r="N241" t="n">
         <v>2</v>
       </c>
     </row>
@@ -15185,20 +16390,25 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
+          <t>0.7275</t>
+        </is>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
           <t>rs13303368</t>
         </is>
       </c>
-      <c r="K242" t="inlineStr">
+      <c r="L242" t="inlineStr">
         <is>
           <t>1|1</t>
         </is>
       </c>
-      <c r="L242" t="inlineStr">
+      <c r="M242" t="inlineStr">
         <is>
           <t>1|1</t>
         </is>
       </c>
-      <c r="M242" t="n">
+      <c r="N242" t="n">
         <v>2</v>
       </c>
     </row>
@@ -15246,20 +16456,25 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
           <t>rs13302983</t>
         </is>
       </c>
-      <c r="K243" t="inlineStr">
+      <c r="L243" t="inlineStr">
         <is>
           <t>1|1</t>
         </is>
       </c>
-      <c r="L243" t="inlineStr">
+      <c r="M243" t="inlineStr">
         <is>
           <t>1|1</t>
         </is>
       </c>
-      <c r="M243" t="n">
+      <c r="N243" t="n">
         <v>2</v>
       </c>
     </row>
@@ -15307,20 +16522,25 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
+          <t>0.7581</t>
+        </is>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
           <t>rs2298214</t>
         </is>
       </c>
-      <c r="K244" t="inlineStr">
+      <c r="L244" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="L244" t="inlineStr">
+      <c r="M244" t="inlineStr">
         <is>
           <t>1/1</t>
         </is>
       </c>
-      <c r="M244" t="n">
+      <c r="N244" t="n">
         <v>2</v>
       </c>
     </row>
